--- a/filename/deployment_checklist_xxxxxxx.xlsx
+++ b/filename/deployment_checklist_xxxxxxx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Coding\Project\deploy_scb\filename\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231B1186-2377-415E-92D2-4D9BD2701551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020DFC55-4217-4E4B-BA1F-8F9B6D058BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="2340" windowWidth="28725" windowHeight="7875" firstSheet="5" activeTab="10" xr2:uid="{2DD0B2C5-B180-432C-BB44-F7813D567221}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="9" xr2:uid="{2DD0B2C5-B180-432C-BB44-F7813D567221}"/>
   </bookViews>
   <sheets>
     <sheet name="group_job" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,9 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId19"/>
-    <pivotCache cacheId="10" r:id="rId20"/>
-    <pivotCache cacheId="11" r:id="rId21"/>
+    <pivotCache cacheId="0" r:id="rId19"/>
+    <pivotCache cacheId="1" r:id="rId20"/>
+    <pivotCache cacheId="2" r:id="rId21"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -15468,7 +15468,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17014BFD-A4F7-4981-A47A-EFD642F29CB8}" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17014BFD-A4F7-4981-A47A-EFD642F29CB8}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="I1:J7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -15532,7 +15532,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{32870BCD-6FE8-4ED4-AD70-41401ED344DC}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{32870BCD-6FE8-4ED4-AD70-41401ED344DC}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="G1:H4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -15580,7 +15580,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00EF411D-7D2F-4A7D-A8A8-E6E4BBA933F7}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00EF411D-7D2F-4A7D-A8A8-E6E4BBA933F7}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="N1:O10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -16052,9 +16052,9 @@
   </sheetPr>
   <dimension ref="A1:AB1761"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34378,7 +34378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F616CB1E-FBCC-40F2-9FBA-11A9BA91DBFC}">
   <dimension ref="A1:B177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
